--- a/trunk/Students/Course-Numbers.xlsx
+++ b/trunk/Students/Course-Numbers.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="570" windowWidth="24615" windowHeight="12720"/>
+    <workbookView xWindow="270" yWindow="570" windowWidth="24615" windowHeight="11715"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Entries" sheetId="1" r:id="rId1"/>
+    <sheet name="Course numbers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="1570">
   <si>
     <t>Id</t>
   </si>
@@ -997,6 +997,21 @@
     <t>Тодорова</t>
   </si>
   <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>diana</t>
+  </si>
+  <si>
+    <t>288006</t>
+  </si>
+  <si>
+    <t>chavdarova</t>
+  </si>
+  <si>
+    <t>hristova</t>
+  </si>
+  <si>
     <t>387</t>
   </si>
   <si>
@@ -2428,6 +2443,21 @@
     <t>Ивов</t>
   </si>
   <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>Наталия</t>
+  </si>
+  <si>
+    <t>трети /магистър/</t>
+  </si>
+  <si>
+    <t>106554</t>
+  </si>
+  <si>
+    <t>Павлинова</t>
+  </si>
+  <si>
     <t>195</t>
   </si>
   <si>
@@ -3478,6 +3508,18 @@
     <t>288026</t>
   </si>
   <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>Lazar</t>
+  </si>
+  <si>
+    <t>121209024</t>
+  </si>
+  <si>
+    <t>Sestrimski</t>
+  </si>
+  <si>
     <t>159</t>
   </si>
   <si>
@@ -3589,6 +3631,12 @@
     <t>Avramov</t>
   </si>
   <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>Йочев</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -3772,6 +3820,18 @@
     <t>Славова</t>
   </si>
   <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>трети</t>
+  </si>
+  <si>
+    <t>D101554</t>
+  </si>
+  <si>
+    <t>Бориславова</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
@@ -4660,10 +4720,10 @@
     <t>Last name</t>
   </si>
   <si>
+    <t>Course number</t>
+  </si>
+  <si>
     <t>Faculty number</t>
-  </si>
-  <si>
-    <t>Course number</t>
   </si>
 </sst>
 </file>
@@ -5243,22 +5303,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H448" totalsRowShown="0">
-  <autoFilter ref="A1:H448"/>
-  <sortState ref="A2:H448">
-    <sortCondition ref="A1:A448"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H453" totalsRowShown="0">
+  <autoFilter ref="A1:H453"/>
+  <sortState ref="A2:H453">
+    <sortCondition ref="A1:A453"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Id" dataDxfId="4"/>
     <tableColumn id="2" name="First name" dataDxfId="3"/>
-    <tableColumn id="6" name="Middle name" dataDxfId="2"/>
-    <tableColumn id="8" name="Last name" dataDxfId="1"/>
-    <tableColumn id="9" name="Course number" dataDxfId="0">
+    <tableColumn id="3" name="Middle name" dataDxfId="2"/>
+    <tableColumn id="4" name="Last name" dataDxfId="1"/>
+    <tableColumn id="5" name="Course number" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="University"/>
-    <tableColumn id="3" name="Course"/>
-    <tableColumn id="4" name="Faculty number"/>
+    <tableColumn id="6" name="University"/>
+    <tableColumn id="7" name="Course"/>
+    <tableColumn id="8" name="Faculty number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5551,9 +5611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H448"/>
+  <dimension ref="A1:H453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5565,7 +5627,6 @@
     <col min="6" max="6" width="63.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="78.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -5573,16 +5634,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1545</v>
+        <v>1565</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1546</v>
+        <v>1566</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1547</v>
+        <v>1567</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1549</v>
+        <v>1568</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -5591,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>1548</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5626,13 +5687,13 @@
         <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -5642,10 +5703,10 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H3" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5653,13 +5714,13 @@
         <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1448</v>
+        <v>1468</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1449</v>
+        <v>1469</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -5680,13 +5741,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1276</v>
+        <v>1296</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1278</v>
+        <v>1298</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -5699,7 +5760,7 @@
         <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>1277</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5731,16 +5792,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1230</v>
+        <v>1246</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -5753,21 +5814,21 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -5785,16 +5846,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1375</v>
+        <v>1395</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1376</v>
+        <v>1396</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1378</v>
+        <v>1398</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -5807,18 +5868,18 @@
         <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>1377</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>170</v>
@@ -5866,7 +5927,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>282</v>
@@ -5875,7 +5936,7 @@
         <v>142</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -5888,7 +5949,7 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5920,13 +5981,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1238</v>
+        <v>1254</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -5939,18 +6000,18 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>1239</v>
+        <v>1255</v>
       </c>
       <c r="H14" t="s">
-        <v>1240</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>209</v>
@@ -5974,7 +6035,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1075</v>
+        <v>1085</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>78</v>
@@ -6001,16 +6062,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6028,16 +6089,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6047,10 +6108,10 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="H18" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6082,16 +6143,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6104,21 +6165,21 @@
         <v>181</v>
       </c>
       <c r="H20" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6128,24 +6189,24 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="H21" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6158,21 +6219,21 @@
         <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6190,16 +6251,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6212,21 +6273,21 @@
         <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6239,21 +6300,21 @@
         <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6266,21 +6327,21 @@
         <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1386</v>
+        <v>1406</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6293,21 +6354,21 @@
         <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>1387</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6320,7 +6381,7 @@
         <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6352,16 +6413,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6374,21 +6435,21 @@
         <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1348</v>
+        <v>1368</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6398,7 +6459,7 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -6406,16 +6467,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1213</v>
+        <v>1229</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6433,16 +6494,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1408</v>
+        <v>1428</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1409</v>
+        <v>1429</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1410</v>
+        <v>1430</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6460,16 +6521,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6479,24 +6540,24 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H34" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6514,7 +6575,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>282</v>
@@ -6536,21 +6597,21 @@
         <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="E37" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6563,12 +6624,12 @@
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>90</v>
@@ -6590,39 +6651,39 @@
         <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="E39" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>41_KAPE</v>
       </c>
       <c r="F39" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G39" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="H39" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>314</v>
@@ -6649,7 +6710,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1355</v>
+        <v>1375</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>127</v>
@@ -6658,7 +6719,7 @@
         <v>170</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="E41" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6671,21 +6732,21 @@
         <v>181</v>
       </c>
       <c r="H41" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1324</v>
+        <v>1344</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6698,21 +6759,21 @@
         <v>70</v>
       </c>
       <c r="H42" t="s">
-        <v>1195</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1454</v>
+        <v>1474</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1455</v>
+        <v>1475</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6730,16 +6791,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1233</v>
+        <v>1249</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1235</v>
+        <v>1251</v>
       </c>
       <c r="E44" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6752,21 +6813,21 @@
         <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>1234</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E45" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6779,21 +6840,21 @@
         <v>70</v>
       </c>
       <c r="H45" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1201</v>
+        <v>1217</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1203</v>
+        <v>1219</v>
       </c>
       <c r="E46" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6803,24 +6864,24 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="H46" t="s">
-        <v>1202</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1254</v>
+        <v>1274</v>
       </c>
       <c r="E47" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6830,24 +6891,24 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="H47" t="s">
-        <v>1253</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6857,24 +6918,24 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="H48" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E49" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6884,24 +6945,24 @@
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H49" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>1371</v>
+        <v>1391</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1373</v>
+        <v>1393</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1374</v>
+        <v>1394</v>
       </c>
       <c r="E50" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6914,7 +6975,7 @@
         <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>1372</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -6946,16 +7007,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="E52" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6968,12 +7029,12 @@
         <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>212</v>
@@ -6982,7 +7043,7 @@
         <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1080</v>
+        <v>1090</v>
       </c>
       <c r="E53" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -6995,12 +7056,12 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>282</v>
@@ -7009,7 +7070,7 @@
         <v>215</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E54" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7022,7 +7083,7 @@
         <v>70</v>
       </c>
       <c r="H54" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -7054,16 +7115,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1167</v>
+        <v>1181</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1169</v>
+        <v>1183</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1170</v>
+        <v>1184</v>
       </c>
       <c r="E56" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7076,18 +7137,18 @@
         <v>70</v>
       </c>
       <c r="H56" t="s">
-        <v>1168</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1433</v>
+        <v>1453</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1434</v>
+        <v>1454</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1436</v>
+        <v>1456</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>209</v>
@@ -7103,7 +7164,7 @@
         <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>1435</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -7135,13 +7196,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1472</v>
+        <v>1492</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1474</v>
+        <v>1494</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>249</v>
@@ -7157,12 +7218,12 @@
         <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>1473</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>282</v>
@@ -7171,7 +7232,7 @@
         <v>209</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="E60" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7184,7 +7245,7 @@
         <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>1256</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -7243,16 +7304,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1267</v>
+        <v>1287</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1268</v>
+        <v>1288</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1270</v>
+        <v>1290</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1271</v>
+        <v>1291</v>
       </c>
       <c r="E63" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7265,12 +7326,12 @@
         <v>213</v>
       </c>
       <c r="H63" t="s">
-        <v>1269</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>127</v>
@@ -7279,7 +7340,7 @@
         <v>170</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="E64" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7292,7 +7353,7 @@
         <v>181</v>
       </c>
       <c r="H64" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -7351,16 +7412,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="E67" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7373,18 +7434,18 @@
         <v>181</v>
       </c>
       <c r="H67" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>170</v>
@@ -7400,21 +7461,21 @@
         <v>70</v>
       </c>
       <c r="H68" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1299</v>
+        <v>1319</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1300</v>
+        <v>1320</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1302</v>
+        <v>1322</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1302</v>
+        <v>1322</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7427,21 +7488,21 @@
         <v>70</v>
       </c>
       <c r="H69" t="s">
-        <v>1301</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1461</v>
+        <v>1481</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1285</v>
+        <v>1305</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1287</v>
+        <v>1307</v>
       </c>
       <c r="E70" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7454,7 +7515,7 @@
         <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>1286</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -7486,7 +7547,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>1404</v>
+        <v>1424</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>314</v>
@@ -7513,7 +7574,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>5</v>
@@ -7522,7 +7583,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="E73" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7535,21 +7596,21 @@
         <v>70</v>
       </c>
       <c r="H73" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>249</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E74" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7562,48 +7623,48 @@
         <v>70</v>
       </c>
       <c r="H74" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="E75" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>77_OGOG</v>
       </c>
       <c r="F75" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G75" t="s">
         <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="E76" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7616,21 +7677,21 @@
         <v>70</v>
       </c>
       <c r="H76" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1403</v>
+        <v>1423</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1376</v>
+        <v>1396</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1378</v>
+        <v>1398</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="E77" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7643,21 +7704,21 @@
         <v>70</v>
       </c>
       <c r="H77" t="s">
-        <v>1377</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E78" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7667,24 +7728,24 @@
         <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="H78" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="E79" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7697,18 +7758,18 @@
         <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>107</v>
@@ -7718,24 +7779,24 @@
         <v>83_SVST</v>
       </c>
       <c r="F80" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G80" t="s">
         <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>321</v>
@@ -7751,21 +7812,21 @@
         <v>56</v>
       </c>
       <c r="H81" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>1490</v>
+        <v>1510</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1492</v>
+        <v>1512</v>
       </c>
       <c r="E82" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7778,7 +7839,7 @@
         <v>70</v>
       </c>
       <c r="H82" t="s">
-        <v>1491</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -7810,16 +7871,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>1272</v>
+        <v>1292</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1273</v>
+        <v>1293</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1275</v>
+        <v>1295</v>
       </c>
       <c r="E84" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7832,21 +7893,21 @@
         <v>181</v>
       </c>
       <c r="H84" t="s">
-        <v>1274</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>1352</v>
+        <v>1372</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1353</v>
+        <v>1373</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="E85" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7864,16 +7925,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E86" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7883,15 +7944,15 @@
         <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="H86" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>1412</v>
+        <v>1432</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>127</v>
@@ -7900,7 +7961,7 @@
         <v>170</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="E87" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7913,21 +7974,21 @@
         <v>181</v>
       </c>
       <c r="H87" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E88" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7940,21 +8001,21 @@
         <v>70</v>
       </c>
       <c r="H88" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>1493</v>
+        <v>1513</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1494</v>
+        <v>1514</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1495</v>
+        <v>1515</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1495</v>
+        <v>1515</v>
       </c>
       <c r="E89" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -7972,10 +8033,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>1095</v>
+        <v>1105</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>249</v>
@@ -7994,15 +8055,15 @@
         <v>213</v>
       </c>
       <c r="H90" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>1496</v>
+        <v>1516</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1177</v>
+        <v>1191</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>209</v>
@@ -8021,21 +8082,21 @@
         <v>30</v>
       </c>
       <c r="H91" t="s">
-        <v>1497</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E92" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8048,7 +8109,7 @@
         <v>30</v>
       </c>
       <c r="H92" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -8080,7 +8141,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>282</v>
@@ -8089,7 +8150,7 @@
         <v>209</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="E94" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8102,7 +8163,7 @@
         <v>30</v>
       </c>
       <c r="H94" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -8161,16 +8222,16 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="E97" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8183,18 +8244,18 @@
         <v>70</v>
       </c>
       <c r="H97" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>1227</v>
+        <v>1243</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1228</v>
+        <v>1244</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>178</v>
@@ -8210,21 +8271,21 @@
         <v>181</v>
       </c>
       <c r="H98" t="s">
-        <v>1229</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>1543</v>
+        <v>1563</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1544</v>
+        <v>1564</v>
       </c>
       <c r="E99" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8242,16 +8303,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="E100" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8264,7 +8325,7 @@
         <v>114</v>
       </c>
       <c r="H100" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -8296,16 +8357,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1068</v>
+        <v>1078</v>
       </c>
       <c r="E102" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8318,18 +8379,18 @@
         <v>30</v>
       </c>
       <c r="H102" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>178</v>
@@ -8339,27 +8400,27 @@
         <v>108_BIHR</v>
       </c>
       <c r="F103" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
       </c>
       <c r="H103" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="E104" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8372,12 +8433,12 @@
         <v>70</v>
       </c>
       <c r="H104" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>52</v>
@@ -8404,7 +8465,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>282</v>
@@ -8413,7 +8474,7 @@
         <v>26</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1085</v>
+        <v>1095</v>
       </c>
       <c r="E106" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8423,10 +8484,10 @@
         <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="H106" t="s">
-        <v>1084</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -8458,16 +8519,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>1525</v>
+        <v>1545</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1528</v>
+        <v>1548</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1529</v>
+        <v>1549</v>
       </c>
       <c r="E108" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8477,24 +8538,24 @@
         <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>1526</v>
+        <v>1546</v>
       </c>
       <c r="H108" t="s">
-        <v>1527</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E109" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8512,16 +8573,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="E110" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8539,16 +8600,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="E111" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8566,16 +8627,16 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E112" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8588,21 +8649,21 @@
         <v>70</v>
       </c>
       <c r="H112" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E113" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8612,24 +8673,24 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H113" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E114" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8639,10 +8700,10 @@
         <v>8</v>
       </c>
       <c r="G114" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H114" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -8674,29 +8735,29 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="E116" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>121_ROZA</v>
       </c>
       <c r="F116" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G116" t="s">
         <v>30</v>
       </c>
       <c r="H116" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -8755,16 +8816,16 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>1304</v>
+        <v>1324</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1305</v>
+        <v>1325</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1306</v>
+        <v>1326</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1307</v>
+        <v>1327</v>
       </c>
       <c r="E119" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8782,16 +8843,16 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1073</v>
+        <v>1083</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1074</v>
+        <v>1084</v>
       </c>
       <c r="E120" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8804,12 +8865,12 @@
         <v>181</v>
       </c>
       <c r="H120" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>75</v>
@@ -8836,16 +8897,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="E122" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8858,15 +8919,15 @@
         <v>181</v>
       </c>
       <c r="H122" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1380</v>
+        <v>1400</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>142</v>
@@ -8890,16 +8951,16 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>1343</v>
+        <v>1363</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1346</v>
+        <v>1366</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1347</v>
+        <v>1367</v>
       </c>
       <c r="E124" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8909,24 +8970,24 @@
         <v>20</v>
       </c>
       <c r="G124" t="s">
-        <v>1344</v>
+        <v>1364</v>
       </c>
       <c r="H124" t="s">
-        <v>1345</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E125" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8939,21 +9000,21 @@
         <v>70</v>
       </c>
       <c r="H125" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="E126" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8966,12 +9027,12 @@
         <v>310</v>
       </c>
       <c r="H126" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>282</v>
@@ -8980,7 +9041,7 @@
         <v>26</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E127" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -8993,21 +9054,21 @@
         <v>70</v>
       </c>
       <c r="H127" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>1481</v>
+        <v>1501</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E128" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9017,24 +9078,24 @@
         <v>8</v>
       </c>
       <c r="G128" t="s">
-        <v>1482</v>
+        <v>1502</v>
       </c>
       <c r="H128" t="s">
-        <v>1483</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="E129" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9047,15 +9108,15 @@
         <v>181</v>
       </c>
       <c r="H129" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>199</v>
@@ -9079,13 +9140,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>209</v>
@@ -9133,16 +9194,16 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E133" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9160,16 +9221,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="E134" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9187,16 +9248,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="E135" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9214,16 +9275,16 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E136" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9241,16 +9302,16 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="E137" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9263,12 +9324,12 @@
         <v>213</v>
       </c>
       <c r="H137" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>218</v>
@@ -9277,7 +9338,7 @@
         <v>209</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="E138" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9295,16 +9356,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>1171</v>
+        <v>1185</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1172</v>
+        <v>1186</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1174</v>
+        <v>1188</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1175</v>
+        <v>1189</v>
       </c>
       <c r="E139" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9317,21 +9378,21 @@
         <v>30</v>
       </c>
       <c r="H139" t="s">
-        <v>1173</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="E140" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9349,16 +9410,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E141" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9371,21 +9432,21 @@
         <v>70</v>
       </c>
       <c r="H141" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="E142" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9398,21 +9459,21 @@
         <v>30</v>
       </c>
       <c r="H142" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E143" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9425,21 +9486,21 @@
         <v>30</v>
       </c>
       <c r="H143" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>1500</v>
+        <v>1520</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1503</v>
+        <v>1523</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1504</v>
+        <v>1524</v>
       </c>
       <c r="E144" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9449,24 +9510,24 @@
         <v>8</v>
       </c>
       <c r="G144" t="s">
-        <v>1501</v>
+        <v>1521</v>
       </c>
       <c r="H144" t="s">
-        <v>1502</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E145" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9484,13 +9545,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>88</v>
@@ -9506,21 +9567,21 @@
         <v>213</v>
       </c>
       <c r="H146" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="E147" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9533,21 +9594,21 @@
         <v>70</v>
       </c>
       <c r="H147" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E148" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9565,7 +9626,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>167</v>
@@ -9574,7 +9635,7 @@
         <v>245</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="E149" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9584,10 +9645,10 @@
         <v>8</v>
       </c>
       <c r="G149" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="H149" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -9619,16 +9680,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E151" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9646,10 +9707,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>170</v>
@@ -9673,16 +9734,16 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
       <c r="E153" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9700,16 +9761,16 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="E154" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9722,7 +9783,7 @@
         <v>181</v>
       </c>
       <c r="H154" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -9754,16 +9815,16 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>1360</v>
+        <v>1380</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E156" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9776,7 +9837,7 @@
         <v>30</v>
       </c>
       <c r="H156" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -9808,16 +9869,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E158" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9835,16 +9896,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="E159" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9862,13 +9923,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>1333</v>
+        <v>1353</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1334</v>
+        <v>1354</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1335</v>
+        <v>1355</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>87</v>
@@ -9889,7 +9950,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>1308</v>
+        <v>1328</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>299</v>
@@ -9898,7 +9959,7 @@
         <v>215</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1309</v>
+        <v>1329</v>
       </c>
       <c r="E161" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9916,16 +9977,16 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>1479</v>
+        <v>1499</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="E162" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9943,13 +10004,13 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>1475</v>
+        <v>1495</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>26</v>
@@ -9970,7 +10031,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>127</v>
@@ -9979,7 +10040,7 @@
         <v>170</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="E164" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -9992,7 +10053,7 @@
         <v>181</v>
       </c>
       <c r="H164" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -10051,7 +10112,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>1442</v>
+        <v>1462</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>299</v>
@@ -10078,13 +10139,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>1058</v>
+        <v>1068</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>209</v>
@@ -10105,7 +10166,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>176</v>
@@ -10114,7 +10175,7 @@
         <v>177</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="E169" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10132,16 +10193,16 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E170" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10151,31 +10212,31 @@
         <v>116</v>
       </c>
       <c r="G170" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H170" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>1336</v>
+        <v>1356</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1337</v>
+        <v>1357</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E171" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>177_MEST</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G171" t="s">
         <v>4</v>
@@ -10186,16 +10247,16 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>1224</v>
+        <v>1240</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1225</v>
+        <v>1241</v>
       </c>
       <c r="E172" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10213,16 +10274,16 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E173" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10232,18 +10293,18 @@
         <v>8</v>
       </c>
       <c r="G173" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H173" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>87</v>
@@ -10262,7 +10323,7 @@
         <v>56</v>
       </c>
       <c r="H174" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -10294,16 +10355,16 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E176" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10316,21 +10377,21 @@
         <v>70</v>
       </c>
       <c r="H176" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="E177" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10348,16 +10409,16 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>1413</v>
+        <v>1433</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E178" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10370,7 +10431,7 @@
         <v>181</v>
       </c>
       <c r="H178" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -10402,16 +10463,16 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="E180" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10424,21 +10485,21 @@
         <v>181</v>
       </c>
       <c r="H180" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E181" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10456,16 +10517,16 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E182" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10483,13 +10544,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>1364</v>
+        <v>1384</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>170</v>
@@ -10510,16 +10571,16 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>1499</v>
+        <v>1519</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="E184" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10532,12 +10593,12 @@
         <v>30</v>
       </c>
       <c r="H184" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>282</v>
@@ -10546,7 +10607,7 @@
         <v>209</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="E185" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10564,43 +10625,43 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>1394</v>
+        <v>1414</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1395</v>
+        <v>1415</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1397</v>
+        <v>1417</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1398</v>
+        <v>1418</v>
       </c>
       <c r="E186" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>193_ROSL</v>
       </c>
       <c r="F186" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
       </c>
       <c r="H186" t="s">
-        <v>1396</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="E187" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10610,15 +10671,15 @@
         <v>8</v>
       </c>
       <c r="G187" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H187" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>60</v>
@@ -10627,7 +10688,7 @@
         <v>245</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="E188" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10645,7 +10706,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>212</v>
@@ -10654,7 +10715,7 @@
         <v>142</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E189" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10664,24 +10725,24 @@
         <v>20</v>
       </c>
       <c r="G189" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H189" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>1388</v>
+        <v>1408</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E190" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10694,21 +10755,21 @@
         <v>70</v>
       </c>
       <c r="H190" t="s">
-        <v>1389</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>1425</v>
+        <v>1445</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1428</v>
+        <v>1448</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1429</v>
+        <v>1449</v>
       </c>
       <c r="E191" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10718,24 +10779,24 @@
         <v>8</v>
       </c>
       <c r="G191" t="s">
-        <v>1426</v>
+        <v>1446</v>
       </c>
       <c r="H191" t="s">
-        <v>1427</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="E192" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10745,24 +10806,24 @@
         <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="H192" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>1365</v>
+        <v>1385</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E193" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10775,18 +10836,18 @@
         <v>70</v>
       </c>
       <c r="H193" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>174</v>
@@ -10802,21 +10863,21 @@
         <v>70</v>
       </c>
       <c r="H194" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1251</v>
+        <v>1267</v>
       </c>
       <c r="E195" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10829,21 +10890,21 @@
         <v>213</v>
       </c>
       <c r="H195" t="s">
-        <v>1249</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="E196" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10856,21 +10917,21 @@
         <v>56</v>
       </c>
       <c r="H196" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>1288</v>
+        <v>1308</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1289</v>
+        <v>1309</v>
       </c>
       <c r="E197" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10888,16 +10949,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="E198" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10910,21 +10971,21 @@
         <v>181</v>
       </c>
       <c r="H198" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E199" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10942,7 +11003,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>1226</v>
+        <v>1242</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>282</v>
@@ -10951,7 +11012,7 @@
         <v>142</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E200" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10964,21 +11025,21 @@
         <v>30</v>
       </c>
       <c r="H200" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E201" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -10991,15 +11052,15 @@
         <v>56</v>
       </c>
       <c r="H201" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>1486</v>
+        <v>1506</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1487</v>
+        <v>1507</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>177</v>
@@ -11015,21 +11076,21 @@
         <v>20</v>
       </c>
       <c r="G202" t="s">
-        <v>1488</v>
+        <v>1508</v>
       </c>
       <c r="H202" t="s">
-        <v>1489</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>103</v>
@@ -11045,21 +11106,21 @@
         <v>30</v>
       </c>
       <c r="H203" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="E204" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11072,21 +11133,21 @@
         <v>181</v>
       </c>
       <c r="H204" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="E205" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11096,24 +11157,24 @@
         <v>20</v>
       </c>
       <c r="G205" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H205" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="E206" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11123,21 +11184,21 @@
         <v>8</v>
       </c>
       <c r="G206" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H206" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>225</v>
@@ -11158,16 +11219,16 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="E208" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11185,16 +11246,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="E209" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11207,7 +11268,7 @@
         <v>70</v>
       </c>
       <c r="H209" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -11239,16 +11300,16 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="E211" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11261,21 +11322,21 @@
         <v>181</v>
       </c>
       <c r="H211" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E212" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11285,18 +11346,18 @@
         <v>183</v>
       </c>
       <c r="G212" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="H212" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>177</v>
@@ -11320,16 +11381,16 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="E214" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11342,7 +11403,7 @@
         <v>70</v>
       </c>
       <c r="H214" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -11374,16 +11435,16 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="E216" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11393,21 +11454,21 @@
         <v>8</v>
       </c>
       <c r="G216" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="H216" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>1513</v>
+        <v>1533</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1514</v>
+        <v>1534</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1517</v>
+        <v>1537</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>268</v>
@@ -11420,24 +11481,24 @@
         <v>20</v>
       </c>
       <c r="G217" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="H217" t="s">
-        <v>1516</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="E218" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11450,21 +11511,21 @@
         <v>56</v>
       </c>
       <c r="H218" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>1242</v>
+        <v>1258</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1245</v>
+        <v>1261</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1246</v>
+        <v>1262</v>
       </c>
       <c r="E219" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11477,39 +11538,39 @@
         <v>56</v>
       </c>
       <c r="H219" t="s">
-        <v>1244</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="E220" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>229_STVE</v>
       </c>
       <c r="F220" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G220" t="s">
         <v>70</v>
       </c>
       <c r="H220" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>176</v>
@@ -11531,7 +11592,7 @@
         <v>213</v>
       </c>
       <c r="H221" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -11563,16 +11624,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>1161</v>
+        <v>1175</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="E223" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11585,21 +11646,21 @@
         <v>70</v>
       </c>
       <c r="H223" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E224" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11612,7 +11673,7 @@
         <v>30</v>
       </c>
       <c r="H224" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -11644,13 +11705,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>1214</v>
+        <v>1230</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>87</v>
@@ -11666,7 +11727,7 @@
         <v>30</v>
       </c>
       <c r="H226" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -11698,16 +11759,16 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="E228" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11725,16 +11786,16 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E229" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11747,21 +11808,21 @@
         <v>181</v>
       </c>
       <c r="H229" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E230" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11779,16 +11840,16 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="E231" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11798,7 +11859,7 @@
         <v>8</v>
       </c>
       <c r="G231" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -11806,13 +11867,13 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>303</v>
@@ -11833,13 +11894,13 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>44</v>
@@ -11860,16 +11921,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1282</v>
+        <v>1302</v>
       </c>
       <c r="E234" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11882,21 +11943,21 @@
         <v>30</v>
       </c>
       <c r="H234" t="s">
-        <v>1281</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>1422</v>
+        <v>1442</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1424</v>
+        <v>1444</v>
       </c>
       <c r="E235" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11909,7 +11970,7 @@
         <v>30</v>
       </c>
       <c r="H235" t="s">
-        <v>1423</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -11941,7 +12002,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>282</v>
@@ -11950,7 +12011,7 @@
         <v>244</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="E237" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11963,21 +12024,21 @@
         <v>70</v>
       </c>
       <c r="H237" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="E238" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -11990,21 +12051,21 @@
         <v>56</v>
       </c>
       <c r="H238" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1331</v>
+        <v>1351</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1332</v>
+        <v>1352</v>
       </c>
       <c r="E239" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12017,12 +12078,12 @@
         <v>56</v>
       </c>
       <c r="H239" t="s">
-        <v>1330</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>145</v>
@@ -12031,7 +12092,7 @@
         <v>87</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E240" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12044,7 +12105,7 @@
         <v>56</v>
       </c>
       <c r="H240" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -12103,13 +12164,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>117</v>
@@ -12125,12 +12186,12 @@
         <v>70</v>
       </c>
       <c r="H243" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>1459</v>
+        <v>1479</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>282</v>
@@ -12139,7 +12200,7 @@
         <v>209</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="E244" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12149,24 +12210,24 @@
         <v>20</v>
       </c>
       <c r="G244" t="s">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="H244" t="s">
-        <v>1256</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="E245" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12179,21 +12240,21 @@
         <v>213</v>
       </c>
       <c r="H245" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E246" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12203,10 +12264,10 @@
         <v>20</v>
       </c>
       <c r="G246" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H246" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -12238,16 +12299,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>1284</v>
+        <v>1304</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1285</v>
+        <v>1305</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1287</v>
+        <v>1307</v>
       </c>
       <c r="E248" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12260,7 +12321,7 @@
         <v>213</v>
       </c>
       <c r="H248" t="s">
-        <v>1286</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -12292,13 +12353,13 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>1349</v>
+        <v>1369</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1351</v>
+        <v>1371</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>209</v>
@@ -12314,21 +12375,21 @@
         <v>213</v>
       </c>
       <c r="H250" t="s">
-        <v>1350</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1092</v>
+        <v>1102</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="E251" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12346,16 +12407,16 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="E252" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12368,21 +12429,21 @@
         <v>70</v>
       </c>
       <c r="H252" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="E253" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12395,21 +12456,21 @@
         <v>70</v>
       </c>
       <c r="H253" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="E254" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12419,24 +12480,24 @@
         <v>116</v>
       </c>
       <c r="G254" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H254" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="E255" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12449,18 +12510,18 @@
         <v>30</v>
       </c>
       <c r="H255" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>209</v>
@@ -12476,21 +12537,21 @@
         <v>56</v>
       </c>
       <c r="H256" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>1194</v>
+        <v>1210</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
       <c r="E257" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12503,7 +12564,7 @@
         <v>70</v>
       </c>
       <c r="H257" t="s">
-        <v>1195</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -12535,16 +12596,16 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="E259" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12554,24 +12615,24 @@
         <v>116</v>
       </c>
       <c r="G259" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="H259" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>1179</v>
+        <v>1193</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1180</v>
+        <v>1194</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="E260" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12581,24 +12642,24 @@
         <v>20</v>
       </c>
       <c r="G260" t="s">
-        <v>1181</v>
+        <v>1195</v>
       </c>
       <c r="H260" t="s">
-        <v>1182</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>1390</v>
+        <v>1410</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1391</v>
+        <v>1411</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1393</v>
+        <v>1413</v>
       </c>
       <c r="E261" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12608,24 +12669,24 @@
         <v>20</v>
       </c>
       <c r="G261" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H261" t="s">
-        <v>1392</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>1366</v>
+        <v>1386</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1367</v>
+        <v>1387</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1370</v>
+        <v>1390</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1367</v>
+        <v>1387</v>
       </c>
       <c r="E262" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12635,10 +12696,10 @@
         <v>37</v>
       </c>
       <c r="G262" t="s">
-        <v>1368</v>
+        <v>1388</v>
       </c>
       <c r="H262" t="s">
-        <v>1369</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -12670,13 +12731,13 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>1405</v>
+        <v>1425</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1407</v>
+        <v>1427</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>117</v>
@@ -12689,24 +12750,24 @@
         <v>183</v>
       </c>
       <c r="G264" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="H264" t="s">
-        <v>1406</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E265" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12716,34 +12777,34 @@
         <v>183</v>
       </c>
       <c r="G265" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="H265" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>1518</v>
+        <v>1538</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1519</v>
+        <v>1539</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1428</v>
+        <v>1448</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1521</v>
+        <v>1541</v>
       </c>
       <c r="E266" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>276_DOTE</v>
       </c>
       <c r="F266" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G266" t="s">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -12751,13 +12812,13 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>9</v>
@@ -12778,7 +12839,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>60</v>
@@ -12787,7 +12848,7 @@
         <v>267</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="E268" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12800,7 +12861,7 @@
         <v>213</v>
       </c>
       <c r="H268" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -12832,13 +12893,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>1505</v>
+        <v>1525</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1506</v>
+        <v>1526</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1508</v>
+        <v>1528</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>21</v>
@@ -12854,21 +12915,21 @@
         <v>30</v>
       </c>
       <c r="H270" t="s">
-        <v>1507</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="E271" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12881,21 +12942,21 @@
         <v>30</v>
       </c>
       <c r="H271" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E272" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12908,12 +12969,12 @@
         <v>30</v>
       </c>
       <c r="H272" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>136</v>
@@ -12922,7 +12983,7 @@
         <v>199</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E273" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12932,24 +12993,24 @@
         <v>8</v>
       </c>
       <c r="G273" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H273" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E274" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12967,16 +13028,16 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="E275" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -12989,21 +13050,21 @@
         <v>181</v>
       </c>
       <c r="H275" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="E276" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13016,21 +13077,21 @@
         <v>181</v>
       </c>
       <c r="H276" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>1539</v>
+        <v>1559</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1540</v>
+        <v>1560</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1542</v>
+        <v>1562</v>
       </c>
       <c r="E277" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13043,21 +13104,21 @@
         <v>30</v>
       </c>
       <c r="H277" t="s">
-        <v>1541</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>1381</v>
+        <v>1401</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1382</v>
+        <v>1402</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1384</v>
+        <v>1404</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1385</v>
+        <v>1405</v>
       </c>
       <c r="E278" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13070,21 +13131,21 @@
         <v>56</v>
       </c>
       <c r="H278" t="s">
-        <v>1383</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="E279" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13094,24 +13155,24 @@
         <v>116</v>
       </c>
       <c r="G279" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="H279" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="E280" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13124,21 +13185,21 @@
         <v>30</v>
       </c>
       <c r="H280" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1126</v>
+        <v>1136</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1127</v>
+        <v>1137</v>
       </c>
       <c r="E281" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13151,21 +13212,21 @@
         <v>70</v>
       </c>
       <c r="H281" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>1216</v>
+        <v>1232</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1217</v>
+        <v>1233</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1219</v>
+        <v>1235</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="E282" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13178,12 +13239,12 @@
         <v>30</v>
       </c>
       <c r="H282" t="s">
-        <v>1218</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>5</v>
@@ -13192,7 +13253,7 @@
         <v>82</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="E283" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13205,21 +13266,21 @@
         <v>257</v>
       </c>
       <c r="H283" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>1530</v>
+        <v>1550</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1531</v>
+        <v>1551</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1532</v>
+        <v>1552</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1533</v>
+        <v>1553</v>
       </c>
       <c r="E284" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13237,23 +13298,23 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>1210</v>
+        <v>1226</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1211</v>
+        <v>1227</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1212</v>
+        <v>1228</v>
       </c>
       <c r="E285" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>295_NIFI</v>
       </c>
       <c r="F285" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G285" t="s">
         <v>4</v>
@@ -13264,16 +13325,16 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>1462</v>
+        <v>1482</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1438</v>
+        <v>1458</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1441</v>
+        <v>1461</v>
       </c>
       <c r="E286" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13286,18 +13347,18 @@
         <v>70</v>
       </c>
       <c r="H286" t="s">
-        <v>1439</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>178</v>
@@ -13313,18 +13374,18 @@
         <v>4</v>
       </c>
       <c r="H287" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>170</v>
@@ -13334,7 +13395,7 @@
         <v>298_HRHR</v>
       </c>
       <c r="F288" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G288" t="s">
         <v>4</v>
@@ -13345,13 +13406,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>170</v>
@@ -13361,7 +13422,7 @@
         <v>299_HRHR</v>
       </c>
       <c r="F289" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G289" t="s">
         <v>4</v>
@@ -13426,16 +13487,16 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E292" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13448,18 +13509,18 @@
         <v>70</v>
       </c>
       <c r="H292" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>26</v>
@@ -13475,21 +13536,21 @@
         <v>56</v>
       </c>
       <c r="H293" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="E294" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13502,7 +13563,7 @@
         <v>56</v>
       </c>
       <c r="H294" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -13534,7 +13595,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>41</v>
@@ -13543,7 +13604,7 @@
         <v>103</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="E296" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13553,24 +13614,24 @@
         <v>20</v>
       </c>
       <c r="G296" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H296" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="E297" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13583,21 +13644,21 @@
         <v>70</v>
       </c>
       <c r="H297" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E298" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13607,18 +13668,18 @@
         <v>20</v>
       </c>
       <c r="G298" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="H298" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>1420</v>
+        <v>1440</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>220</v>
@@ -13637,7 +13698,7 @@
         <v>56</v>
       </c>
       <c r="H299" t="s">
-        <v>1421</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -13669,16 +13730,16 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="E301" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13691,7 +13752,7 @@
         <v>30</v>
       </c>
       <c r="H301" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -13723,16 +13784,16 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="E303" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13742,24 +13803,24 @@
         <v>20</v>
       </c>
       <c r="G303" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="H303" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="E304" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13772,21 +13833,21 @@
         <v>30</v>
       </c>
       <c r="H304" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E305" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13799,21 +13860,21 @@
         <v>70</v>
       </c>
       <c r="H305" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>1357</v>
+        <v>1377</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1358</v>
+        <v>1378</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1359</v>
+        <v>1379</v>
       </c>
       <c r="E306" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13826,7 +13887,7 @@
         <v>181</v>
       </c>
       <c r="H306" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -13858,16 +13919,16 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="E308" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13880,21 +13941,21 @@
         <v>70</v>
       </c>
       <c r="H308" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>1176</v>
+        <v>1190</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1177</v>
+        <v>1191</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1178</v>
+        <v>1192</v>
       </c>
       <c r="E309" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13912,16 +13973,16 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>1279</v>
+        <v>1299</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="E310" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13934,21 +13995,21 @@
         <v>70</v>
       </c>
       <c r="H310" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E311" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -13961,7 +14022,7 @@
         <v>30</v>
       </c>
       <c r="H311" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -13993,16 +14054,16 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E313" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14015,21 +14076,21 @@
         <v>56</v>
       </c>
       <c r="H313" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="E314" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14042,15 +14103,15 @@
         <v>30</v>
       </c>
       <c r="H314" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>1294</v>
+        <v>1314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>9</v>
@@ -14066,24 +14127,24 @@
         <v>8</v>
       </c>
       <c r="G315" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="H315" t="s">
-        <v>1295</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>1325</v>
+        <v>1345</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1326</v>
+        <v>1346</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1328</v>
+        <v>1348</v>
       </c>
       <c r="E316" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14093,7 +14154,7 @@
         <v>20</v>
       </c>
       <c r="G316" t="s">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -14101,16 +14162,16 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="E317" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14128,16 +14189,16 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>1463</v>
+        <v>1483</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1466</v>
+        <v>1486</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1467</v>
+        <v>1487</v>
       </c>
       <c r="E318" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14150,12 +14211,12 @@
         <v>30</v>
       </c>
       <c r="H318" t="s">
-        <v>1465</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>60</v>
@@ -14164,7 +14225,7 @@
         <v>209</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
       <c r="E319" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14177,21 +14238,21 @@
         <v>181</v>
       </c>
       <c r="H319" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="E320" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14209,16 +14270,16 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="E321" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14231,21 +14292,21 @@
         <v>70</v>
       </c>
       <c r="H321" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>1162</v>
+        <v>1176</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1163</v>
+        <v>1177</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="E322" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14255,10 +14316,10 @@
         <v>8</v>
       </c>
       <c r="G322" t="s">
-        <v>1164</v>
+        <v>1178</v>
       </c>
       <c r="H322" t="s">
-        <v>1165</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -14290,16 +14351,16 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E324" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14309,18 +14370,18 @@
         <v>8</v>
       </c>
       <c r="G324" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="H324" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>43</v>
@@ -14344,16 +14405,16 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E326" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14366,21 +14427,21 @@
         <v>30</v>
       </c>
       <c r="H326" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>1313</v>
+        <v>1333</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1315</v>
+        <v>1335</v>
       </c>
       <c r="E327" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14393,21 +14454,21 @@
         <v>30</v>
       </c>
       <c r="H327" t="s">
-        <v>1314</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="E328" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14425,16 +14486,16 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="E329" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14444,24 +14505,24 @@
         <v>37</v>
       </c>
       <c r="G329" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="H329" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="E330" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14479,16 +14540,16 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>1197</v>
+        <v>1213</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1198</v>
+        <v>1214</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1199</v>
+        <v>1215</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1200</v>
+        <v>1216</v>
       </c>
       <c r="E331" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14506,16 +14567,16 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="E332" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14528,48 +14589,48 @@
         <v>30</v>
       </c>
       <c r="H332" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1157</v>
+        <v>1171</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1160</v>
+        <v>1174</v>
       </c>
       <c r="E333" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>344_DIRA</v>
       </c>
       <c r="F333" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G333" t="s">
-        <v>1158</v>
+        <v>1172</v>
       </c>
       <c r="H333" t="s">
-        <v>1159</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>1534</v>
+        <v>1554</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E334" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14587,16 +14648,16 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E335" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14614,16 +14675,16 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="E336" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14636,21 +14697,21 @@
         <v>30</v>
       </c>
       <c r="H336" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>1416</v>
+        <v>1436</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1419</v>
+        <v>1439</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E337" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14660,10 +14721,10 @@
         <v>20</v>
       </c>
       <c r="G337" t="s">
-        <v>1417</v>
+        <v>1437</v>
       </c>
       <c r="H337" t="s">
-        <v>1418</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -14749,16 +14810,16 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>1320</v>
+        <v>1340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1321</v>
+        <v>1341</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1322</v>
+        <v>1342</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1323</v>
+        <v>1343</v>
       </c>
       <c r="E341" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14776,16 +14837,16 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="E342" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14798,7 +14859,7 @@
         <v>4</v>
       </c>
       <c r="H342" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -14830,16 +14891,16 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E344" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14852,12 +14913,12 @@
         <v>56</v>
       </c>
       <c r="H344" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>1221</v>
+        <v>1237</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>167</v>
@@ -14876,24 +14937,24 @@
         <v>20</v>
       </c>
       <c r="G345" t="s">
-        <v>1222</v>
+        <v>1238</v>
       </c>
       <c r="H345" t="s">
-        <v>1223</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>1437</v>
+        <v>1457</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1438</v>
+        <v>1458</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1441</v>
+        <v>1461</v>
       </c>
       <c r="E346" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14906,12 +14967,12 @@
         <v>70</v>
       </c>
       <c r="H346" t="s">
-        <v>1439</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>1356</v>
+        <v>1376</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>262</v>
@@ -14938,16 +14999,16 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>1316</v>
+        <v>1336</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1317</v>
+        <v>1337</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1319</v>
+        <v>1339</v>
       </c>
       <c r="E348" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -14960,12 +15021,12 @@
         <v>30</v>
       </c>
       <c r="H348" t="s">
-        <v>1318</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>1094</v>
+        <v>1104</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>212</v>
@@ -14992,13 +15053,13 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>321</v>
@@ -15014,21 +15075,21 @@
         <v>257</v>
       </c>
       <c r="H350" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>1290</v>
+        <v>1310</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1292</v>
+        <v>1312</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1293</v>
+        <v>1313</v>
       </c>
       <c r="E351" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15041,21 +15102,21 @@
         <v>30</v>
       </c>
       <c r="H351" t="s">
-        <v>1291</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="E352" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15068,12 +15129,12 @@
         <v>70</v>
       </c>
       <c r="H352" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>145</v>
@@ -15100,13 +15161,13 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>117</v>
@@ -15122,21 +15183,21 @@
         <v>70</v>
       </c>
       <c r="H354" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="E355" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15149,21 +15210,21 @@
         <v>213</v>
       </c>
       <c r="H355" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="E356" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15176,18 +15237,18 @@
         <v>30</v>
       </c>
       <c r="H356" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>21</v>
@@ -15203,21 +15264,21 @@
         <v>30</v>
       </c>
       <c r="H357" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>1236</v>
+        <v>1252</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
       <c r="E358" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15262,16 +15323,16 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E360" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15289,7 +15350,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>1303</v>
+        <v>1323</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>90</v>
@@ -15311,21 +15372,21 @@
         <v>70</v>
       </c>
       <c r="H361" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>1338</v>
+        <v>1358</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1339</v>
+        <v>1359</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1342</v>
+        <v>1362</v>
       </c>
       <c r="E362" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15338,21 +15399,21 @@
         <v>30</v>
       </c>
       <c r="H362" t="s">
-        <v>1340</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E363" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15365,7 +15426,7 @@
         <v>30</v>
       </c>
       <c r="H363" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
@@ -15373,40 +15434,40 @@
         <v>182</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1257</v>
+        <v>1277</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1260</v>
+        <v>1280</v>
       </c>
       <c r="E364" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>375_TOST</v>
       </c>
       <c r="F364" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G364" t="s">
-        <v>1258</v>
+        <v>1278</v>
       </c>
       <c r="H364" t="s">
-        <v>1259</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E365" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15424,16 +15485,16 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>1535</v>
+        <v>1555</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1536</v>
+        <v>1556</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1537</v>
+        <v>1557</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1538</v>
+        <v>1558</v>
       </c>
       <c r="E366" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15451,13 +15512,13 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>1296</v>
+        <v>1316</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>9</v>
@@ -15473,7 +15534,7 @@
         <v>56</v>
       </c>
       <c r="H367" t="s">
-        <v>1297</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -15505,16 +15566,16 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="E369" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15524,24 +15585,24 @@
         <v>8</v>
       </c>
       <c r="G369" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="H369" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>1509</v>
+        <v>1529</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1510</v>
+        <v>1530</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1512</v>
+        <v>1532</v>
       </c>
       <c r="E370" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15554,21 +15615,21 @@
         <v>70</v>
       </c>
       <c r="H370" t="s">
-        <v>1511</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>1450</v>
+        <v>1470</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1452</v>
+        <v>1472</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1453</v>
+        <v>1473</v>
       </c>
       <c r="E371" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15581,21 +15642,21 @@
         <v>4</v>
       </c>
       <c r="H371" t="s">
-        <v>1451</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>1443</v>
+        <v>1463</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1444</v>
+        <v>1464</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1446</v>
+        <v>1466</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1447</v>
+        <v>1467</v>
       </c>
       <c r="E372" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15608,21 +15669,21 @@
         <v>56</v>
       </c>
       <c r="H372" t="s">
-        <v>1445</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="E373" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15635,21 +15696,21 @@
         <v>70</v>
       </c>
       <c r="H373" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>1261</v>
+        <v>1281</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1262</v>
+        <v>1282</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1265</v>
+        <v>1285</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1266</v>
+        <v>1286</v>
       </c>
       <c r="E374" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15659,18 +15720,18 @@
         <v>116</v>
       </c>
       <c r="G374" t="s">
-        <v>1263</v>
+        <v>1283</v>
       </c>
       <c r="H374" t="s">
-        <v>1264</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>1231</v>
+        <v>1247</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>267</v>
@@ -15689,21 +15750,21 @@
         <v>70</v>
       </c>
       <c r="H375" t="s">
-        <v>1232</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E376" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15721,16 +15782,16 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E377" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15740,21 +15801,21 @@
         <v>20</v>
       </c>
       <c r="G377" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="H377" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>103</v>
@@ -15775,16 +15836,16 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E379" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15794,24 +15855,24 @@
         <v>20</v>
       </c>
       <c r="G379" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H379" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>1476</v>
+        <v>1496</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1342</v>
+        <v>1362</v>
       </c>
       <c r="E380" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15821,15 +15882,15 @@
         <v>116</v>
       </c>
       <c r="G380" t="s">
-        <v>1477</v>
+        <v>1497</v>
       </c>
       <c r="H380" t="s">
-        <v>1478</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>1456</v>
+        <v>1476</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>52</v>
@@ -15838,7 +15899,7 @@
         <v>326</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1458</v>
+        <v>1478</v>
       </c>
       <c r="E381" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15848,7 +15909,7 @@
         <v>116</v>
       </c>
       <c r="G381" t="s">
-        <v>1457</v>
+        <v>1477</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -15856,16 +15917,16 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>1207</v>
+        <v>1223</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1209</v>
+        <v>1225</v>
       </c>
       <c r="E382" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15878,18 +15939,18 @@
         <v>30</v>
       </c>
       <c r="H382" t="s">
-        <v>1208</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>174</v>
@@ -15964,16 +16025,16 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="E386" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -15991,16 +16052,16 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="E387" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16018,7 +16079,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>60</v>
@@ -16027,7 +16088,7 @@
         <v>62</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E388" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16072,16 +16133,16 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="E390" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16099,7 +16160,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>75</v>
@@ -16108,7 +16169,7 @@
         <v>130</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1206</v>
+        <v>1222</v>
       </c>
       <c r="E391" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16121,21 +16182,21 @@
         <v>30</v>
       </c>
       <c r="H391" t="s">
-        <v>1205</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E392" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16153,16 +16214,16 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>1183</v>
+        <v>1197</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1184</v>
+        <v>1198</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1186</v>
+        <v>1200</v>
       </c>
       <c r="E393" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16175,21 +16236,21 @@
         <v>30</v>
       </c>
       <c r="H393" t="s">
-        <v>1185</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>1522</v>
+        <v>1542</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1523</v>
+        <v>1543</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1524</v>
+        <v>1544</v>
       </c>
       <c r="E394" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16234,16 +16295,16 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="E396" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16256,18 +16317,18 @@
         <v>6</v>
       </c>
       <c r="H396" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>26</v>
@@ -16283,21 +16344,21 @@
         <v>70</v>
       </c>
       <c r="H397" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E398" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16307,10 +16368,10 @@
         <v>8</v>
       </c>
       <c r="G398" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H398" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -16342,13 +16403,13 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>245</v>
@@ -16364,21 +16425,21 @@
         <v>181</v>
       </c>
       <c r="H400" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E401" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16391,7 +16452,7 @@
         <v>30</v>
       </c>
       <c r="H401" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -16423,13 +16484,13 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>130</v>
@@ -16445,18 +16506,18 @@
         <v>30</v>
       </c>
       <c r="H403" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>139</v>
@@ -16469,24 +16530,24 @@
         <v>20</v>
       </c>
       <c r="G404" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="H404" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="E405" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16499,21 +16560,21 @@
         <v>122</v>
       </c>
       <c r="H405" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E406" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16523,24 +16584,24 @@
         <v>8</v>
       </c>
       <c r="G406" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H406" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>1498</v>
+        <v>1518</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E407" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16550,24 +16611,24 @@
         <v>8</v>
       </c>
       <c r="G407" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H407" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="E408" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16580,7 +16641,7 @@
         <v>30</v>
       </c>
       <c r="H408" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -16612,13 +16673,13 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>26</v>
@@ -16634,18 +16695,18 @@
         <v>30</v>
       </c>
       <c r="H410" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>209</v>
@@ -16655,27 +16716,27 @@
         <v>422_GEGE</v>
       </c>
       <c r="F411" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G411" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H411" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="E412" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16688,21 +16749,21 @@
         <v>30</v>
       </c>
       <c r="H412" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="E413" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16715,7 +16776,7 @@
         <v>30</v>
       </c>
       <c r="H413" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -16747,7 +16808,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>282</v>
@@ -16756,7 +16817,7 @@
         <v>9</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="E415" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16766,10 +16827,10 @@
         <v>20</v>
       </c>
       <c r="G415" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="H415" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -16801,13 +16862,13 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>88</v>
@@ -16828,16 +16889,16 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="E418" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16850,18 +16911,18 @@
         <v>30</v>
       </c>
       <c r="H418" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>1430</v>
+        <v>1450</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1431</v>
+        <v>1451</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>76</v>
@@ -16877,39 +16938,39 @@
         <v>30</v>
       </c>
       <c r="H419" t="s">
-        <v>1432</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="E420" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
         <v>431_GACV</v>
       </c>
       <c r="F420" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G420" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H420" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>314</v>
@@ -16918,7 +16979,7 @@
         <v>88</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E421" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16931,21 +16992,21 @@
         <v>30</v>
       </c>
       <c r="H421" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E422" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16955,15 +17016,15 @@
         <v>8</v>
       </c>
       <c r="G422" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H422" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>1399</v>
+        <v>1419</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>98</v>
@@ -16972,7 +17033,7 @@
         <v>142</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1402</v>
+        <v>1422</v>
       </c>
       <c r="E423" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -16982,21 +17043,21 @@
         <v>20</v>
       </c>
       <c r="G423" t="s">
-        <v>1400</v>
+        <v>1420</v>
       </c>
       <c r="H423" t="s">
-        <v>1401</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>264</v>
@@ -17009,15 +17070,15 @@
         <v>20</v>
       </c>
       <c r="G424" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="H424" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>60</v>
@@ -17026,7 +17087,7 @@
         <v>26</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="E425" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17039,21 +17100,21 @@
         <v>56</v>
       </c>
       <c r="H425" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="E426" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17063,10 +17124,10 @@
         <v>8</v>
       </c>
       <c r="G426" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="H426" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -17125,7 +17186,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>1220</v>
+        <v>1236</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>318</v>
@@ -17179,16 +17240,16 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E431" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17201,21 +17262,21 @@
         <v>213</v>
       </c>
       <c r="H431" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="E432" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17233,16 +17294,16 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>1468</v>
+        <v>1488</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1469</v>
+        <v>1489</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1471</v>
+        <v>1491</v>
       </c>
       <c r="E433" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17252,24 +17313,24 @@
         <v>37</v>
       </c>
       <c r="G433" t="s">
-        <v>1470</v>
+        <v>1490</v>
       </c>
       <c r="H433" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="E434" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17279,15 +17340,15 @@
         <v>20</v>
       </c>
       <c r="G434" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="H434" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>60</v>
@@ -17296,7 +17357,7 @@
         <v>26</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="E435" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17309,18 +17370,18 @@
         <v>56</v>
       </c>
       <c r="H435" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>177</v>
@@ -17336,7 +17397,7 @@
         <v>70</v>
       </c>
       <c r="H436" t="s">
-        <v>1363</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -17368,10 +17429,10 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>1414</v>
+        <v>1434</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1415</v>
+        <v>1435</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>130</v>
@@ -17395,13 +17456,13 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>1310</v>
+        <v>1330</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1311</v>
+        <v>1331</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1312</v>
+        <v>1332</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>253</v>
@@ -17422,16 +17483,16 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>1484</v>
+        <v>1504</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="E440" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17441,24 +17502,24 @@
         <v>37</v>
       </c>
       <c r="G440" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H440" t="s">
-        <v>1485</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="E441" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17476,16 +17537,16 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="E442" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17495,24 +17556,24 @@
         <v>37</v>
       </c>
       <c r="G442" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H442" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>1187</v>
+        <v>1201</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1188</v>
+        <v>1202</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1190</v>
+        <v>1204</v>
       </c>
       <c r="E443" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17525,7 +17586,7 @@
         <v>30</v>
       </c>
       <c r="H443" t="s">
-        <v>1189</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -17584,16 +17645,16 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E446" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17611,16 +17672,16 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="E447" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17633,21 +17694,21 @@
         <v>30</v>
       </c>
       <c r="H447" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E448" s="1" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
@@ -17663,9 +17724,144 @@
         <v>4</v>
       </c>
     </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E449" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
+        <v>460_IVJO</v>
+      </c>
+      <c r="F449" t="s">
+        <v>25</v>
+      </c>
+      <c r="G449" t="s">
+        <v>4</v>
+      </c>
+      <c r="H449" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E450" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
+        <v>461_LASE</v>
+      </c>
+      <c r="F450" t="s">
+        <v>8</v>
+      </c>
+      <c r="G450" t="s">
+        <v>70</v>
+      </c>
+      <c r="H450" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E451" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
+        <v>462_DIHR</v>
+      </c>
+      <c r="F451" t="s">
+        <v>116</v>
+      </c>
+      <c r="G451" t="s">
+        <v>30</v>
+      </c>
+      <c r="H451" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E452" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
+        <v>463_NAJO</v>
+      </c>
+      <c r="F452" t="s">
+        <v>37</v>
+      </c>
+      <c r="G452" t="s">
+        <v>811</v>
+      </c>
+      <c r="H452" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E453" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
+        <v>464_BOAS</v>
+      </c>
+      <c r="F453" t="s">
+        <v>37</v>
+      </c>
+      <c r="G453" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H453" t="s">
+        <v>1270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/trunk/Students/Course-Numbers.xlsx
+++ b/trunk/Students/Course-Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="570" windowWidth="24615" windowHeight="11715"/>
+    <workbookView xWindow="270" yWindow="570" windowWidth="21840" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="Course numbers" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="1584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="1585">
   <si>
     <t>Id</t>
   </si>
@@ -4766,13 +4766,16 @@
   </si>
   <si>
     <t>Project description file</t>
+  </si>
+  <si>
+    <t>Stefan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4923,6 +4926,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5268,10 +5278,12 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5390,8 +5402,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J453" totalsRowShown="0">
-  <autoFilter ref="A1:J453"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J454" totalsRowShown="0">
+  <autoFilter ref="A1:J454"/>
   <sortState ref="A2:H453">
     <sortCondition ref="A1:A453"/>
   </sortState>
@@ -5700,10 +5712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J453"/>
+  <dimension ref="A1:J454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="H428" workbookViewId="0">
+      <selection activeCell="M453" sqref="M453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20666,6 +20678,33 @@
       </c>
       <c r="J453" t="s">
         <v>1270</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>465</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E454" s="3" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Id]], "_", SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[First name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"), SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LEFT(UPPER(Table1[[#This Row],[Last name]]), 2),"А", "A"),"Б", "B"),"В", "V"),"Г", "G"),"Д", "D"),"Е", "E"),"Ж", "J"),"З", "Z"),"И", "I"),"Й", "J"),"К", "K"),"Л", "L"),"М", "M"),"Н", "N"),"О", "O"),"П", "P"),"Р", "R"),"С", "S"),"Т", "T"),"У", "U"),"Ф", "F"),"Х", "H"),"Ц", "C"),"Ч", "C"),"Ш", "S"),"Щ", "S"),"Ъ", "Y"),"ь", "Y"),"Ю", "U"),"Я", "Q"))</f>
+        <v>465_STAV</v>
+      </c>
+      <c r="F454" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H454" t="s">
+        <v>20</v>
+      </c>
+      <c r="I454" t="s">
+        <v>1269</v>
       </c>
     </row>
   </sheetData>
@@ -21122,11 +21161,12 @@
     <hyperlink ref="G451" r:id="rId450"/>
     <hyperlink ref="G452" r:id="rId451"/>
     <hyperlink ref="G453" r:id="rId452"/>
+    <hyperlink ref="G454" r:id="rId453"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId453"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId454"/>
   <tableParts count="1">
-    <tablePart r:id="rId454"/>
+    <tablePart r:id="rId455"/>
   </tableParts>
 </worksheet>
 </file>